--- a/chapter 2/AutoSum.xlsx
+++ b/chapter 2/AutoSum.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10909"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Writing\Lynda\Excel 2019 Intro to F&amp;Fs\Exercise Files\Chapter02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scarstruck/Git/excel_vlookups/chapter 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E59005-5075-4B91-9787-650AD0844C23}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B89D7A-F2CA-0241-BFAD-7E739E5054C3}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="19440" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="460" windowWidth="25240" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Yearly Revenue</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Average</t>
   </si>
 </sst>
 </file>
@@ -195,7 +198,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -214,6 +217,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -553,34 +557,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
@@ -594,7 +598,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -608,7 +612,7 @@
         <v>165520</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -622,7 +626,7 @@
         <v>165731</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
@@ -636,7 +640,7 @@
         <v>85971</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
@@ -650,13 +654,39 @@
         <v>127730</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
+      <c r="B9" s="16">
+        <f t="shared" ref="B9:D9" si="0">SUM(B4:B8)</f>
+        <v>771815</v>
+      </c>
+      <c r="C9" s="15">
+        <f t="shared" si="0"/>
+        <v>597632</v>
+      </c>
+      <c r="D9" s="15">
+        <f t="shared" si="0"/>
+        <v>546970</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <f t="shared" ref="B10:D10" si="1">AVERAGE(B4:B9)</f>
+        <v>257271.66666666666</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>199210.66666666666</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>182323.33333333334</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
